--- a/FillWeatherStat/DY.xlsx
+++ b/FillWeatherStat/DY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\shanzhashu\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\shanzhashu\FillWeatherStat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D30DBA0-1A78-48EF-89DD-F631A1D78256}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7268D4F-CC78-4EA7-85BB-9CE74DBA3025}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1980" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="温度" sheetId="1" r:id="rId1"/>
@@ -849,6 +849,48 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,21 +898,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -894,46 +921,55 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -942,40 +978,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -993,53 +999,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,62 +1059,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2C337AB-D3BE-4BC4-A665-00125BBC22CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4371976" y="6867525"/>
-          <a:ext cx="2533650" cy="2390775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1493,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1509,98 +1453,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" s="9" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="42">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="42">
         <v>0.65972222222222221</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
@@ -1623,166 +1567,166 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40">
+      <c r="A10" s="44">
         <v>-10</v>
       </c>
       <c r="B10" s="29">
         <v>-9.9920000000000009</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="48">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="45">
         <f>AVERAGE(B10:B12)+C10</f>
         <v>-9.9953333333333347</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="48">
         <v>-10.113</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="45">
         <f>E10-D10</f>
         <v>-0.11766666666666481</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="29">
         <v>-9.9890000000000008</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="38"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="29">
         <v>-9.9960000000000004</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="39"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40">
+      <c r="A13" s="44">
         <v>0</v>
       </c>
       <c r="B13" s="28">
         <v>2.4E-2</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="62">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="45">
         <f>AVERAGE(B13:B15)+C13</f>
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="48">
         <v>-8.8999999999999996E-2</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="45">
         <f>E13-D13</f>
         <v>-0.11399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="28">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="38"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="28">
         <v>3.1E-2</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="39"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40">
+      <c r="A16" s="44">
         <v>30</v>
       </c>
       <c r="B16" s="28">
         <v>30.102</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="62">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="45">
         <f>AVERAGE(B16:B18)+C16</f>
         <v>30.083333333333332</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="48">
         <v>29.983000000000001</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="45">
         <f>E16-D16</f>
         <v>-0.10033333333333161</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28">
         <v>30.094999999999999</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="38"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="28">
         <v>30.091999999999999</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="58" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="58" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
@@ -1795,13 +1739,31 @@
       <c r="D22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="34">
         <v>45000</v>
       </c>
-      <c r="F22" s="57"/>
+      <c r="F22" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B8:F8"/>
@@ -1818,29 +1780,10 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.47244094488188998" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1863,91 +1806,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:10" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="42">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="42">
         <v>0.65972222222222221</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="231.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="75" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="75" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
@@ -1970,124 +1913,124 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="33">
         <v>86.6</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="48">
         <v>1.2</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="72">
         <f>AVERAGE(B9:B11)+C9</f>
         <v>88</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="48">
         <v>92.2</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="72">
         <f>SUM(E9-D9)</f>
         <v>4.2000000000000028</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="33">
         <v>86.8</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="33">
         <v>87</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="33">
         <v>33</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="48">
         <v>-1.7</v>
       </c>
-      <c r="D12" s="65">
+      <c r="D12" s="72">
         <f>AVERAGE(B12:B14)+C12</f>
         <v>31.400000000000002</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="48">
         <v>34.299999999999997</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="72">
         <f>SUM(E12-D12)</f>
         <v>2.899999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="33">
         <v>33.1</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="70"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="33">
         <v>33.200000000000003</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:10" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
@@ -2099,13 +2042,29 @@
       <c r="D18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="75">
         <v>45000</v>
       </c>
-      <c r="F18" s="64"/>
+      <c r="F18" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B4:C4"/>
@@ -2115,22 +2074,6 @@
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.31496062992126" footer="0.31496062992126"/>
@@ -2159,98 +2102,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="42">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="42">
         <v>0.65972222222222221</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
@@ -2262,11 +2205,11 @@
       <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
@@ -2279,12 +2222,12 @@
         <f>B10-A10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="77">
+      <c r="D10" s="79">
         <f>ABS(C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
@@ -2297,12 +2240,12 @@
         <f>B11-A11</f>
         <v>-1</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="79">
         <f>ABS(C11)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
@@ -2315,48 +2258,48 @@
         <f>B12-A12</f>
         <v>2</v>
       </c>
-      <c r="D12" s="77">
+      <c r="D12" s="79">
         <f>ABS(C12)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
     </row>
     <row r="13" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="58" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
@@ -2369,13 +2312,24 @@
       <c r="D16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="75">
         <v>45000</v>
       </c>
-      <c r="F16" s="64"/>
+      <c r="F16" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -2388,17 +2342,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.47244094488188998" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -2426,98 +2369,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="42">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="42">
         <v>0.65972222222222221</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" s="22" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
@@ -2551,10 +2494,10 @@
         <f>C10-B10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="81"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="10">
@@ -2570,10 +2513,10 @@
         <f>C11-B11</f>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="81"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10">
@@ -2589,10 +2532,10 @@
         <f>C12-B12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="81"/>
+      <c r="F12" s="83"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10">
@@ -2608,10 +2551,10 @@
         <f>C13-B13</f>
         <v>-9.9999999999997868E-2</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="81"/>
+      <c r="F13" s="83"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
@@ -2627,46 +2570,46 @@
         <f>C14-B14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="81"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="58" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
@@ -2679,26 +2622,13 @@
       <c r="D18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="75">
         <v>45000</v>
       </c>
-      <c r="F18" s="64"/>
+      <c r="F18" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="A6:A7"/>
@@ -2711,6 +2641,19 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.66929133858267698" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -2738,98 +2681,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="42">
         <v>0.54861111111111105</v>
       </c>
-      <c r="C5" s="62"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="42">
         <v>0.65972222222222221</v>
       </c>
-      <c r="F5" s="62"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" ht="201" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
@@ -2852,166 +2795,166 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="40">
+      <c r="A10" s="44">
         <v>950</v>
       </c>
       <c r="B10" s="5">
         <v>950</v>
       </c>
-      <c r="C10" s="88">
+      <c r="C10" s="86">
         <v>-0.04</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="48">
         <f>AVERAGE(B10:B12)+C10</f>
         <v>949.96</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="72">
         <v>950.1</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="48">
         <f>E10-D10</f>
         <v>0.13999999999998636</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="5">
         <v>950</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="35"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="49"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="5">
         <v>950</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="36"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="40">
+      <c r="A13" s="44">
         <v>1000</v>
       </c>
       <c r="B13" s="5">
         <v>1000</v>
       </c>
-      <c r="C13" s="88">
+      <c r="C13" s="86">
         <v>-0.04</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="48">
         <f>AVERAGE(B13:B15)+C13</f>
         <v>999.96</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="72">
         <v>1000.1</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="48">
         <f>E13-D13</f>
         <v>0.13999999999998636</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="5">
         <v>1000</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="49"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="40"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="5">
         <v>1000</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="36"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40">
+      <c r="A16" s="44">
         <v>1050</v>
       </c>
       <c r="B16" s="5">
         <v>1050</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C16" s="86">
         <v>-0.04</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="48">
         <f>AVERAGE(B16:B18)+C16</f>
         <v>1049.96</v>
       </c>
-      <c r="E16" s="65">
+      <c r="E16" s="72">
         <v>1050</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="48">
         <f>E16-D16</f>
         <v>3.999999999996362E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="5">
         <v>1050</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="35"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="5">
         <v>1050</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="58" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="60"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="58" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="58" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:6" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
@@ -3024,31 +2967,13 @@
       <c r="D22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="75">
         <v>45000</v>
       </c>
-      <c r="F22" s="64"/>
+      <c r="F22" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="A19:B19"/>
@@ -3065,6 +2990,24 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.47244094488188998" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
@@ -3092,98 +3035,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="94">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C5" s="50"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="94">
         <v>0.72222222222222199</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="38"/>
+      <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:6" ht="241.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="59"/>
+      <c r="B7" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="97"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
@@ -3206,122 +3149,122 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68">
+      <c r="A10" s="67">
         <v>10</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="48">
         <v>1</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="91">
         <v>10</v>
       </c>
       <c r="D10" s="27">
         <v>10.199999999999999</v>
       </c>
-      <c r="E10" s="92">
+      <c r="E10" s="91">
         <f>AVERAGE(D10:D12)</f>
         <v>10.233333333333333</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="91">
         <f>E10-C10</f>
         <v>0.2333333333333325</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="93"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="27">
         <v>10.3</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="94"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="27">
         <v>10.199999999999999</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
-      <c r="B13" s="34">
+      <c r="A13" s="70"/>
+      <c r="B13" s="48">
         <v>4</v>
       </c>
-      <c r="C13" s="92">
+      <c r="C13" s="91">
         <v>10</v>
       </c>
       <c r="D13" s="27">
         <v>10.3</v>
       </c>
-      <c r="E13" s="92">
+      <c r="E13" s="91">
         <f>AVERAGE(D13:D15)</f>
         <v>10.3</v>
       </c>
-      <c r="F13" s="92">
+      <c r="F13" s="91">
         <f>E13-C13</f>
         <v>0.30000000000000071</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="93"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="27">
         <v>10.3</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="70"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="94"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="27">
         <v>10.3</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
     </row>
     <row r="16" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="58" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
@@ -3336,25 +3279,13 @@
       <c r="D19" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="91">
+      <c r="E19" s="97">
         <v>44981</v>
       </c>
-      <c r="F19" s="91"/>
+      <c r="F19" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="D3:F3"/>
@@ -3371,6 +3302,18 @@
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.47244094488188998" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
